--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KBTC Level 4\Office Solution Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KBTC Level 4\Office Solution Development\git__user\osd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522059C8-E8A9-40F1-8A4D-98ABAF3CA169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA0E978-6994-4C14-9B44-EFD0ACE46B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F05523FD-72C0-466E-AAFC-BDDF9CB3B58F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>First Name</t>
   </si>
@@ -70,6 +70,33 @@
   </si>
   <si>
     <t>age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Dell xps 13</t>
+  </si>
+  <si>
+    <t>Dell xps 14</t>
+  </si>
+  <si>
+    <t>Dell xps 15</t>
+  </si>
+  <si>
+    <t>Dell xps 16</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>voucher</t>
   </si>
 </sst>
 </file>
@@ -101,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,20 +136,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -440,15 +497,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F375C70-4FC3-49A6-9E6A-7FB5C116C15D}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -476,7 +533,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -490,7 +547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -504,7 +561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -518,9 +575,137 @@
         <v>25</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1750000</v>
+      </c>
+      <c r="H11">
+        <v>1001</v>
+      </c>
+      <c r="I11" t="str">
+        <f>LOOKUP(H11,A11:A14,B11:B14)</f>
+        <v>Dell xps 13</v>
+      </c>
+      <c r="J11">
+        <f>LOOKUP(H11,A11:A14,C11:C14)</f>
+        <v>1750000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="H12">
+        <v>1002</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" ref="I12:I14" si="0">LOOKUP(H12,A12:A15,B12:B15)</f>
+        <v>Dell xps 14</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J13" si="1">LOOKUP(H12,A12:A15,C12:C15)</f>
+        <v>2750000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3750000</v>
+      </c>
+      <c r="H13">
+        <v>1003</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>Dell xps 15</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>3750000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4750000</v>
+      </c>
+      <c r="H14">
+        <v>1004</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>Dell xps 16</v>
+      </c>
+      <c r="J14">
+        <f>LOOKUP(H14,A14:A17,C14:C17)</f>
+        <v>4750000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>

--- a/UserData.xlsx
+++ b/UserData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KBTC Level 4\Office Solution Development\git__user\osd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA0E978-6994-4C14-9B44-EFD0ACE46B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C234CAA-1F0C-4F60-9302-ED2DDBBEA40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{F05523FD-72C0-466E-AAFC-BDDF9CB3B58F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>First Name</t>
   </si>
@@ -97,13 +97,25 @@
   </si>
   <si>
     <t>voucher</t>
+  </si>
+  <si>
+    <t>hahaha</t>
+  </si>
+  <si>
+    <t>eeuue</t>
+  </si>
+  <si>
+    <t>sjhsdhs</t>
+  </si>
+  <si>
+    <t>ddd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +130,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Agency FB"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,30 +180,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -489,7 +501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -497,10 +509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F375C70-4FC3-49A6-9E6A-7FB5C116C15D}">
-  <dimension ref="A1:J16"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,8 +556,21 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
       <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3">
         <v>25</v>
+      </c>
+      <c r="H3">
+        <f>D3+E3+F3+G3</f>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -572,6 +598,18 @@
         <v>12</v>
       </c>
       <c r="F5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <f>A7+B7</f>
         <v>25</v>
       </c>
     </row>
@@ -703,9 +741,30 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
+    <row r="19" spans="1:3" ht="22" x14ac:dyDescent="0.5">
+      <c r="B19" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="22" x14ac:dyDescent="0.5">
+      <c r="A21" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28" x14ac:dyDescent="0.8">
+      <c r="A22" s="3"/>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="22" x14ac:dyDescent="0.5">
+      <c r="B23" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
